--- a/burndown_template(complete).xlsx
+++ b/burndown_template(complete).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DeakinStudies\Y1T2\SIT107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B0A93E5-0EFC-48C8-8799-145B4FA8A45C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F0D60C-0AB8-4AF7-B9DC-A9A70EC9F612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,6 +217,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -226,37 +233,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -337,10 +337,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -399,16 +399,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,54 +1573,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="17"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>0.375</v>
       </c>
-      <c r="B3" s="16">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16"/>
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19"/>
       <c r="D3" s="13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E3" s="13">
         <f>D3</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F3" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -1628,19 +1628,19 @@
       <c r="A4" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="16">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16"/>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19"/>
       <c r="D4" s="13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" ref="E4:E5" si="0">E3-F3</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -1648,19 +1648,19 @@
       <c r="A5" s="12">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B5" s="16">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16"/>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19"/>
       <c r="D5" s="13">
         <v>5</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -1668,24 +1668,24 @@
       <c r="A6" s="14">
         <v>0.5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="20">
         <v>0</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="15">
         <v>0</v>
       </c>
       <c r="E6" s="13">
         <f>E5-F5</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="15"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1701,16 +1701,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1728,45 +1728,45 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="17"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>0.375</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="19">
         <v>10</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="13">
         <v>30</v>
       </c>
@@ -1783,10 +1783,10 @@
       <c r="A4" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="19">
         <v>10</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="13">
         <f>D3-B4</f>
         <v>20</v>
@@ -1804,10 +1804,10 @@
       <c r="A5" s="12">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="19">
         <v>10</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="13">
         <f t="shared" ref="D5" si="1">D4-B5</f>
         <v>10</v>
@@ -1825,10 +1825,10 @@
       <c r="A6" s="14">
         <v>0.5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="20">
         <v>0</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="15">
         <v>0</v>
       </c>
@@ -1841,8 +1841,8 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1858,16 +1858,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1888,45 +1888,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41771</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="26">
         <v>12</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4">
         <v>120</v>
       </c>
@@ -1942,10 +1942,10 @@
       <c r="A4" s="3">
         <v>41772</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="26">
         <v>12</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4">
         <f>D3-B4</f>
         <v>108</v>
@@ -1963,10 +1963,10 @@
       <c r="A5" s="3">
         <v>41773</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="26">
         <v>12</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D12" si="1">D4-B5</f>
         <v>96</v>
@@ -1984,10 +1984,10 @@
       <c r="A6" s="3">
         <v>41774</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="26">
         <v>12</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2005,10 +2005,10 @@
       <c r="A7" s="3">
         <v>41775</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="26">
         <v>12</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2026,10 +2026,10 @@
       <c r="A8" s="3">
         <v>41778</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="26">
         <v>12</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2047,10 +2047,10 @@
       <c r="A9" s="3">
         <v>41779</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="26">
         <v>12</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2068,10 +2068,10 @@
       <c r="A10" s="3">
         <v>41780</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="26">
         <v>12</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2089,10 +2089,10 @@
       <c r="A11" s="3">
         <v>41781</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="26">
         <v>12</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2110,10 +2110,10 @@
       <c r="A12" s="3">
         <v>41782</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="26">
         <v>12</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2131,10 +2131,10 @@
       <c r="A13" s="6">
         <v>41783</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="28">
         <v>0</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="7">
         <v>0</v>
       </c>
@@ -2154,6 +2154,8 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B3:C3"/>
@@ -2168,8 +2170,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/burndown_template(complete).xlsx
+++ b/burndown_template(complete).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DeakinStudies\Y1T2\SIT107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F0D60C-0AB8-4AF7-B9DC-A9A70EC9F612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F970F7-CE27-426D-B256-D35453A5829A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
